--- a/template-example.xlsx
+++ b/template-example.xlsx
@@ -19,61 +19,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Afwijkingsformulier van:</t>
-  </si>
-  <si>
-    <t>Naam:</t>
-  </si>
-  <si>
-    <t>Projectomschrijving:</t>
-  </si>
-  <si>
-    <t>Datum:</t>
-  </si>
-  <si>
-    <t>Omschrijving:</t>
-  </si>
-  <si>
-    <t>Ingevuld door:</t>
-  </si>
-  <si>
-    <t>{Projectcode}</t>
-  </si>
-  <si>
-    <t>{Naam}</t>
-  </si>
-  <si>
-    <t>{Datum}</t>
-  </si>
-  <si>
-    <t>{Extra}</t>
-  </si>
-  <si>
-    <t>{Etc}</t>
-  </si>
-  <si>
-    <t>Eventuele aanvullingen:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>{first_name}</t>
   </si>
   <si>
     <t>{last_name}</t>
+  </si>
+  <si>
+    <t>First name:</t>
+  </si>
+  <si>
+    <t>Last name:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>{date}</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>{project_name}</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>{description}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,13 +91,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -131,8 +133,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>118762</xdr:rowOff>
     </xdr:to>
@@ -425,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,150 +435,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:I36"/>
+  <dimension ref="A6:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:I35"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="3" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -707,18 +711,9 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:I22"/>
-    <mergeCell ref="A24:I35"/>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
